--- a/sources/case/Auth.xlsx
+++ b/sources/case/Auth.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
   <si>
     <t>CaseID</t>
   </si>
@@ -92,14 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13200000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13200000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Auth_10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,6 +125,38 @@
   </si>
   <si>
     <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13200000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13200000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13200000004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13200000005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13200000006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13200000007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13200000008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13200000009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -509,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -532,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -581,7 +605,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -598,7 +622,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -615,7 +639,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -624,7 +648,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -632,7 +656,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -641,7 +665,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -649,7 +673,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -658,7 +682,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
@@ -666,7 +690,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -675,7 +699,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
@@ -683,7 +707,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -692,7 +716,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
@@ -700,7 +724,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -709,7 +733,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -717,7 +741,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -726,7 +750,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
@@ -734,7 +758,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -743,7 +767,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
@@ -777,52 +801,52 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/Auth.xlsx
+++ b/sources/case/Auth.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
   <si>
     <t>CaseID</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>13200000009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13100000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,10 +566,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -605,7 +617,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -614,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -622,7 +634,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -631,7 +643,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -639,7 +651,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -648,7 +660,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -656,7 +668,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -665,7 +677,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -673,7 +685,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -682,7 +694,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
@@ -690,7 +702,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -699,7 +711,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
@@ -707,7 +719,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -716,7 +728,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
@@ -724,7 +736,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -733,7 +745,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -741,7 +753,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -750,7 +762,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
@@ -758,33 +770,51 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -801,51 +831,56 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
     </row>

--- a/sources/case/Auth.xlsx
+++ b/sources/case/Auth.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
   <si>
     <t>CaseID</t>
   </si>
@@ -62,36 +62,19 @@
     <t>password</t>
   </si>
   <si>
-    <t>12345678</t>
-  </si>
-  <si>
     <t>grant_type</t>
   </si>
   <si>
     <t>user</t>
   </si>
   <si>
-    <t>18612819427</t>
-  </si>
-  <si>
     <t>account</t>
   </si>
   <si>
-    <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
-  </si>
-  <si>
     <t>houlong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13100000009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13200000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Auth_10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,47 +111,97 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13200000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13200000002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13200000004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13200000005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13200000006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13200000007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13200000008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13200000009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13100000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Auth_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Auth_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Tenant.microfastup.tenant_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_10.user}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_11.user}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_12.user}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_13.user}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_15.user}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_16.user}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_17.user}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_18.user}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_19.user}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_20.user}</t>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_10.password}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_11.password}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_12.password}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_13.password}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_15.password}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_16.password}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_17.password}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_18.password}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_19.password}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_20.password}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_1.user}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_houlong.user}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_houlong.password}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_1.password}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +578,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -568,17 +601,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -586,92 +619,92 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
+      <c r="D2" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -680,15 +713,15 @@
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -697,15 +730,15 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -714,15 +747,15 @@
         <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -731,15 +764,15 @@
         <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -748,15 +781,15 @@
         <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -765,15 +798,15 @@
         <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -782,15 +815,15 @@
         <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -799,7 +832,7 @@
         <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -813,7 +846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -826,62 +859,62 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
